--- a/bigcode-evaluation-harness/result/qwen2.5-coder-1.5b-base.xlsx
+++ b/bigcode-evaluation-harness/result/qwen2.5-coder-1.5b-base.xlsx
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.5801526717557252</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.5496183206106871</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.4655172413793103</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>164</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.4556962025316456</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>164</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.4329268292682927</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.6036585365853658</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.5304878048780488</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="20">
